--- a/chaincodeID.xlsx
+++ b/chaincodeID.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t>合约名称</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>UserInfo</t>
+  </si>
+  <si>
+    <t>930f54a6c9c08f0fed61c5d5a153236d73cdbf84f3330f03ec6099f0e76baa5f1f1dfb58a336f4723c0eb625007dac058beacb39c93a7f5c11c80f6387f28c27</t>
   </si>
   <si>
     <t>JobInfo</t>
@@ -38,12 +41,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,23 +56,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -89,48 +123,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,46 +147,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,6 +168,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -212,6 +208,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -224,175 +238,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,15 +399,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -430,32 +417,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,15 +431,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,153 +460,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,12 +1000,12 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="3" max="3" width="130.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
@@ -1020,19 +1016,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/chaincodeID.xlsx
+++ b/chaincodeID.xlsx
@@ -27,7 +27,7 @@
     <t>UserInfo</t>
   </si>
   <si>
-    <t>930f54a6c9c08f0fed61c5d5a153236d73cdbf84f3330f03ec6099f0e76baa5f1f1dfb58a336f4723c0eb625007dac058beacb39c93a7f5c11c80f6387f28c27</t>
+    <t>160d9b88e83856238d689e329768e86e319047ad61aebf9e15a2c0d8636f4ad30621d60352f46012dfaf150f25d160cdb2f3cf148c611997777e1189cd218c7b</t>
   </si>
   <si>
     <t>JobInfo</t>
@@ -42,9 +42,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,24 +62,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,18 +83,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,11 +107,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,13 +159,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,16 +167,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,21 +194,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,187 +208,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,6 +399,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -421,26 +430,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -470,17 +459,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,6 +484,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -507,10 +507,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -519,133 +519,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1000,7 +1000,7 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>

--- a/chaincodeID.xlsx
+++ b/chaincodeID.xlsx
@@ -41,10 +41,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -76,8 +76,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,15 +167,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,77 +185,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,31 +214,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,145 +388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,7 +406,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -428,9 +428,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,19 +479,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,21 +499,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -507,10 +507,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -519,130 +519,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1000,7 +1000,7 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>

--- a/chaincodeID.xlsx
+++ b/chaincodeID.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>合约名称</t>
   </si>
@@ -33,6 +33,9 @@
     <t>JobInfo</t>
   </si>
   <si>
+    <t>6712c04f3f5868ccdfb293d3c7355f243b360730bc501708e01f12b32fc23de145e140e208ddb05819a7b9d736ddea621fe69a5d355069ef44660166c703e493</t>
+  </si>
+  <si>
     <t>TX</t>
   </si>
 </sst>
@@ -41,9 +44,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -63,14 +66,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,7 +96,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,23 +110,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,21 +133,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -167,6 +149,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -183,17 +187,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,85 +211,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,97 +385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,15 +402,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -428,6 +422,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -440,23 +443,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,15 +473,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -499,6 +487,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -507,10 +510,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -519,133 +522,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,14 +1027,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/chaincodeID.xlsx
+++ b/chaincodeID.xlsx
@@ -33,7 +33,7 @@
     <t>JobInfo</t>
   </si>
   <si>
-    <t>6712c04f3f5868ccdfb293d3c7355f243b360730bc501708e01f12b32fc23de145e140e208ddb05819a7b9d736ddea621fe69a5d355069ef44660166c703e493</t>
+    <t>8790b59c32feacc3c5eedf10ef8e8362d99da1c4753aa60b476e6f9ea9cea02143c482abce760a9e38e191f5fcb501ca1e7668143c296b68d68e95fb3965eadc</t>
   </si>
   <si>
     <t>TX</t>
@@ -44,8 +44,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -59,12 +59,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -74,7 +104,84 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,113 +201,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -211,19 +211,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,67 +277,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,91 +391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,15 +422,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -440,11 +431,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,8 +449,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,17 +485,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,10 +510,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -522,133 +522,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1003,7 +1003,7 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>

--- a/chaincodeID.xlsx
+++ b/chaincodeID.xlsx
@@ -44,9 +44,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -66,6 +66,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -87,6 +94,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -96,7 +118,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,83 +196,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,6 +211,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -223,13 +229,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,151 +385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,6 +402,33 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -416,6 +443,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,15 +488,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -469,39 +502,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -510,10 +510,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -522,133 +522,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1003,7 +1003,7 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>

--- a/chaincodeID.xlsx
+++ b/chaincodeID.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>合约名称</t>
   </si>
@@ -38,6 +38,9 @@
   <si>
     <t>TX</t>
   </si>
+  <si>
+    <t>96ef2509c45f6445eb511962014ec2385ab8cf3344fa0b4d6b73dcefe671c0dd1d5c25d927932535ade78d8c87d9c7f6e5fda4d49bff64c196f38f9ebe92a4ba</t>
+  </si>
 </sst>
 </file>
 
@@ -45,9 +48,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,35 +65,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,16 +83,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,6 +146,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -155,17 +190,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,30 +200,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,25 +214,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,157 +388,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,8 +411,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -417,17 +420,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -447,16 +456,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -473,32 +482,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,7 +516,7 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -522,16 +525,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,115 +543,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1003,7 +1006,7 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -1035,9 +1038,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/chaincodeID.xlsx
+++ b/chaincodeID.xlsx
@@ -48,8 +48,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -62,6 +62,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -83,23 +90,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,77 +198,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,13 +214,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,169 +388,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,6 +413,56 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,21 +492,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -470,41 +505,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -513,145 +513,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,7 +1006,7 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>

--- a/chaincodeID.xlsx
+++ b/chaincodeID.xlsx
@@ -47,9 +47,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -68,8 +68,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,7 +146,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,7 +154,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,94 +198,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,13 +214,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,169 +394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,6 +410,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -417,13 +428,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,6 +454,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,47 +500,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,10 +513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,133 +525,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,7 +1006,7 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>

--- a/chaincodeID.xlsx
+++ b/chaincodeID.xlsx
@@ -33,7 +33,7 @@
     <t>JobInfo</t>
   </si>
   <si>
-    <t>8790b59c32feacc3c5eedf10ef8e8362d99da1c4753aa60b476e6f9ea9cea02143c482abce760a9e38e191f5fcb501ca1e7668143c296b68d68e95fb3965eadc</t>
+    <t>a4b2d7c69397fd0ebe50bd5c401dc305bdf262aeb8aae8eafe57040cfe3d85daae327c9de1b450c4b7d92360915682e5dd5557e59adfae7d112a7c8f4b1b4db0</t>
   </si>
   <si>
     <t>TX</t>
@@ -47,10 +47,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,15 +62,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,8 +151,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,24 +175,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,59 +199,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -214,187 +214,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,13 +408,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,17 +486,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,45 +505,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -513,10 +513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,133 +525,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/chaincodeID.xlsx
+++ b/chaincodeID.xlsx
@@ -62,6 +62,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -69,14 +76,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,15 +121,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,89 +167,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -214,187 +214,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,60 +405,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -486,6 +432,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -513,10 +513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,133 +525,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,7 +1006,7 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>

--- a/chaincodeID.xlsx
+++ b/chaincodeID.xlsx
@@ -39,7 +39,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>96ef2509c45f6445eb511962014ec2385ab8cf3344fa0b4d6b73dcefe671c0dd1d5c25d927932535ade78d8c87d9c7f6e5fda4d49bff64c196f38f9ebe92a4ba</t>
+    <t>9361a4b4aa9ad4f90ba4f0347bf69c693905d0fc8ec124b84be89674e2159530d4b5a6005387082b8359a2ec2c3ed79788e988b6bda4034d76fe6a13a772af7c</t>
   </si>
 </sst>
 </file>
@@ -48,9 +48,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,6 +62,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -69,14 +84,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,6 +122,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -114,16 +174,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,64 +197,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -214,6 +214,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -226,175 +346,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,6 +405,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -433,16 +457,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,50 +505,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -513,10 +513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,133 +525,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,7 +1006,7 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>

--- a/chaincodeID.xlsx
+++ b/chaincodeID.xlsx
@@ -48,9 +48,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,22 +62,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,6 +106,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -99,14 +121,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,9 +135,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,13 +158,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -169,37 +200,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,31 +214,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,151 +382,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,17 +408,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -428,6 +422,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,6 +466,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -473,15 +497,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -490,21 +505,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -513,145 +513,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/chaincodeID.xlsx
+++ b/chaincodeID.xlsx
@@ -27,19 +27,19 @@
     <t>UserInfo</t>
   </si>
   <si>
-    <t>160d9b88e83856238d689e329768e86e319047ad61aebf9e15a2c0d8636f4ad30621d60352f46012dfaf150f25d160cdb2f3cf148c611997777e1189cd218c7b</t>
+    <t>9d29747f0b642ed65f481fbc1132d518834b3099671ad5d86feb8609202197f26cefcca348942ce9facdbe8312b5d7ee5598a6d9522c34ae9755720c1176a598</t>
   </si>
   <si>
     <t>JobInfo</t>
   </si>
   <si>
-    <t>a4b2d7c69397fd0ebe50bd5c401dc305bdf262aeb8aae8eafe57040cfe3d85daae327c9de1b450c4b7d92360915682e5dd5557e59adfae7d112a7c8f4b1b4db0</t>
+    <t>81d00c6aa8d4b4dc659dd88a1f906b4764b5d64ae6fce92d1d5a9055a763667aee0f05c99a0591963ecd9dbd2f009dbeb3059ce8831eb54f8f4526f1cfc5264f</t>
   </si>
   <si>
     <t>TX</t>
   </si>
   <si>
-    <t>9361a4b4aa9ad4f90ba4f0347bf69c693905d0fc8ec124b84be89674e2159530d4b5a6005387082b8359a2ec2c3ed79788e988b6bda4034d76fe6a13a772af7c</t>
+    <t>e37d0f15e0258361ed91aecc4e6d2694191aa081231021f29190b6185b067e73e7f0d58d0b0d3980791345de43b74d1b981583db728b1e1d67a18d05afad4bc1</t>
   </si>
 </sst>
 </file>
@@ -47,10 +47,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -68,6 +68,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -75,13 +83,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -91,13 +92,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -105,8 +99,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,6 +144,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -136,54 +168,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,24 +214,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -244,157 +340,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,24 +405,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -437,6 +419,41 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,17 +482,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,17 +505,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -513,10 +513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,19 +525,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,112 +546,112 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/chaincodeID.xlsx
+++ b/chaincodeID.xlsx
@@ -39,7 +39,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>e37d0f15e0258361ed91aecc4e6d2694191aa081231021f29190b6185b067e73e7f0d58d0b0d3980791345de43b74d1b981583db728b1e1d67a18d05afad4bc1</t>
+    <t>f4bd8a2bdaf291db66fb3b153bcea758d6cf56f9d38a71a874490140f9bb1136ac666a4a2db80016710cc1c03da1758d059b1c3f81acd5e27f81bdf196f7d76f</t>
   </si>
 </sst>
 </file>
@@ -47,10 +47,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,6 +62,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -76,23 +83,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,91 +199,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,187 +214,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,7 +427,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,47 +500,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,10 +513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,133 +525,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/chaincodeID.xlsx
+++ b/chaincodeID.xlsx
@@ -33,7 +33,7 @@
     <t>JobInfo</t>
   </si>
   <si>
-    <t>81d00c6aa8d4b4dc659dd88a1f906b4764b5d64ae6fce92d1d5a9055a763667aee0f05c99a0591963ecd9dbd2f009dbeb3059ce8831eb54f8f4526f1cfc5264f</t>
+    <t>cb8e521221d7b454064929e2aee27e2c9970795ae7be314d4324a0577287cfe64fe52ff6b2c4e230437a5ca4bad8f7b026574fb72b5bf0bd4a13b2f266db14c6</t>
   </si>
   <si>
     <t>TX</t>
@@ -47,10 +47,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,6 +62,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -69,7 +92,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -78,6 +108,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,14 +137,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,37 +182,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -169,37 +200,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,187 +214,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,6 +405,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -419,6 +449,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,45 +488,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -513,145 +513,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,7 +1006,7 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>

--- a/chaincodeID.xlsx
+++ b/chaincodeID.xlsx
@@ -39,7 +39,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>f4bd8a2bdaf291db66fb3b153bcea758d6cf56f9d38a71a874490140f9bb1136ac666a4a2db80016710cc1c03da1758d059b1c3f81acd5e27f81bdf196f7d76f</t>
+    <t>aa7fb96ad4becdb3dd31d07613ac442de2c5325ffe3db0c64bb231e50983448f804cbaa851eb3095263ef6ea3e905b92df5aab7e8a694ca73693325b94ffbf48</t>
   </si>
 </sst>
 </file>
@@ -47,10 +47,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,6 +62,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -84,47 +105,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,7 +122,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,6 +144,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,7 +175,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,13 +214,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,13 +346,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,151 +376,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,21 +438,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -488,6 +473,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -497,11 +491,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,10 +513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,133 +525,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,7 +1006,7 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>

--- a/chaincodeID.xlsx
+++ b/chaincodeID.xlsx
@@ -39,7 +39,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>aa7fb96ad4becdb3dd31d07613ac442de2c5325ffe3db0c64bb231e50983448f804cbaa851eb3095263ef6ea3e905b92df5aab7e8a694ca73693325b94ffbf48</t>
+    <t>8cc9dba5fbd7068b03560a4e9e64f0c9403d67072530b4b56cf25df222ac1986b8df27ea7be8d574de75ebffb93cfc3878e46f3ded13899c2c407919c18a8aa9</t>
   </si>
 </sst>
 </file>
@@ -47,10 +47,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -69,47 +69,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,8 +90,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,75 +204,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -214,61 +214,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,37 +382,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,79 +394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,6 +405,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -419,39 +452,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,15 +473,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -491,16 +482,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -513,10 +513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,133 +525,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/chaincodeID.xlsx
+++ b/chaincodeID.xlsx
@@ -39,7 +39,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>8cc9dba5fbd7068b03560a4e9e64f0c9403d67072530b4b56cf25df222ac1986b8df27ea7be8d574de75ebffb93cfc3878e46f3ded13899c2c407919c18a8aa9</t>
+    <t>8b2eba3a50c9d9e20d812267739f02586c72e179f85688fdbaa7eef94b61ca88c94d7f20975517bbd0addc2d54b4a1dbea28e2559d1091456773112f89719645</t>
   </si>
 </sst>
 </file>
@@ -47,10 +47,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,6 +62,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -69,14 +92,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,16 +114,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,7 +139,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,37 +154,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,15 +176,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,19 +197,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -214,13 +214,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,169 +388,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,24 +405,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -457,6 +439,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -485,23 +491,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,145 +513,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/chaincodeID.xlsx
+++ b/chaincodeID.xlsx
@@ -39,7 +39,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>8b2eba3a50c9d9e20d812267739f02586c72e179f85688fdbaa7eef94b61ca88c94d7f20975517bbd0addc2d54b4a1dbea28e2559d1091456773112f89719645</t>
+    <t>2b0c3c18b51951f27b80f380e3dc088e7d33014bbf211941381ad8c596a6621f9cfbd30e45ffd8ab504174ed06387622cad44e654f212b5bdf47d3eb6a678be2</t>
   </si>
 </sst>
 </file>
@@ -47,10 +47,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -61,16 +61,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,28 +86,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,6 +100,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -145,8 +151,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,52 +176,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,13 +214,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,37 +334,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,127 +346,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,17 +408,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,30 +428,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,11 +449,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,11 +465,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,10 +513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,133 +525,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/chaincodeID.xlsx
+++ b/chaincodeID.xlsx
@@ -39,7 +39,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>2b0c3c18b51951f27b80f380e3dc088e7d33014bbf211941381ad8c596a6621f9cfbd30e45ffd8ab504174ed06387622cad44e654f212b5bdf47d3eb6a678be2</t>
+    <t>c40cbe050a3f03513dcc10931d3647d221ee21a2695a23bffa3afcbeeb475c07a815359933b04ecc6c4a7c10fbb5ecdd212913622da55c6244cc7583d9753a63</t>
   </si>
 </sst>
 </file>
@@ -47,10 +47,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -58,6 +58,20 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -77,6 +91,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -88,6 +125,38 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -107,76 +176,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,43 +214,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,7 +340,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,127 +358,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,6 +405,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -433,16 +442,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,26 +465,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,10 +513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,133 +525,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/chaincodeID.xlsx
+++ b/chaincodeID.xlsx
@@ -33,7 +33,7 @@
     <t>JobInfo</t>
   </si>
   <si>
-    <t>cb8e521221d7b454064929e2aee27e2c9970795ae7be314d4324a0577287cfe64fe52ff6b2c4e230437a5ca4bad8f7b026574fb72b5bf0bd4a13b2f266db14c6</t>
+    <t>7147861cb80f5447b0ee974bc917935cc8f65bd89a271095af7e0f7cb8184a7dccdbb93a43fce11d24c7532743c7d22c0fa68c6f6bbc29bb8a92f2e98b2d92ae</t>
   </si>
   <si>
     <t>TX</t>
@@ -47,10 +47,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,6 +62,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -70,6 +106,85 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,121 +204,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -214,48 +214,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -268,133 +394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,20 +408,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,17 +438,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,7 +451,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,6 +488,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -513,10 +513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,133 +525,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,7 +1006,7 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>

--- a/chaincodeID.xlsx
+++ b/chaincodeID.xlsx
@@ -39,7 +39,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>c40cbe050a3f03513dcc10931d3647d221ee21a2695a23bffa3afcbeeb475c07a815359933b04ecc6c4a7c10fbb5ecdd212913622da55c6244cc7583d9753a63</t>
+    <t>3e960549e21165e0a0a03087dc9745436644cb77876ec324949048f7486018cf71f92f30234358c487d7374a7e8ab57156bfec0a2df37cf864f4b2c126716ece</t>
   </si>
 </sst>
 </file>
@@ -47,9 +47,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -62,6 +62,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -69,6 +107,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -76,36 +136,40 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,87 +183,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,6 +214,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -226,13 +340,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,37 +352,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,115 +376,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,17 +408,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,39 +428,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,7 +451,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,6 +466,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -513,145 +513,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,7 +1006,7 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
